--- a/model_settings.xlsx
+++ b/model_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rde/Net/Groups/BGI/people/rde/Models/02_Mengoli_PModel/05_MS_01_P_Bao_model_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F1EBD-2110-9548-AE21-9AAFE0025CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E0C120-A1CA-1342-AEAF-E8E76A09025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="22100" windowWidth="26660" windowHeight="17500" xr2:uid="{5FCEDB57-C8D2-3444-B5A2-2B7A440EDA96}"/>
+    <workbookView xWindow="5540" yWindow="2120" windowWidth="26660" windowHeight="17500" xr2:uid="{5FCEDB57-C8D2-3444-B5A2-2B7A440EDA96}"/>
   </bookViews>
   <sheets>
     <sheet name="model_settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ip_data_path</t>
   </si>
@@ -141,9 +141,6 @@
     <t>my_first_experiment</t>
   </si>
   <si>
-    <t>IN-ABC_2050</t>
-  </si>
-  <si>
     <t>cost_iav</t>
   </si>
   <si>
@@ -154,6 +151,27 @@
   </si>
   <si>
     <t>/path/to/fancy/data/</t>
+  </si>
+  <si>
+    <t>et_var_name</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>do_l-bfgs-b_from_prev</t>
+  </si>
+  <si>
+    <t>xbest_dict_file_path</t>
+  </si>
+  <si>
+    <t>If above is True, give the directory where to look for the parameter output by CMAES</t>
+  </si>
+  <si>
+    <t>Choose between which variable to use for ET. ET is based on LE. ET_CORR is based energy-balance corrected (as done in OneFlux) LE_CORR variable</t>
+  </si>
+  <si>
+    <t>Do another L-BFGS-B optimization starting from parameter values of CMAES (only works for per PFT or global opti)</t>
   </si>
 </sst>
 </file>
@@ -541,15 +559,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2062C1B3-0EC7-0940-8796-9CF8D94A4E67}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.1640625" customWidth="1"/>
     <col min="3" max="3" width="96.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -559,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>27</v>
@@ -617,7 +635,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.25">
@@ -677,13 +695,13 @@
     </row>
     <row r="12" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -701,15 +719,44 @@
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{751F1F23-705C-A045-87E9-6995A7AB99B3}">
       <formula1>"BRK15"</formula1>
     </dataValidation>
@@ -737,11 +784,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{5296E326-1105-114F-AD85-B78A2AE7CB34}">
       <formula1>"P_model, LUE_model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{4B189D6A-CA68-4C4B-ADAC-8A6ADDC6A36F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B16" xr:uid="{4B189D6A-CA68-4C4B-ADAC-8A6ADDC6A36F}">
       <formula1>"True, False"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{F2AAF530-5280-BA43-AE88-3A1BB36DFF5C}">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{AE4DD011-C853-D644-A17E-7C110B26DBC0}">
+      <formula1>"ET, ET_CORR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
